--- a/StructureDefinition-profile-BiologicallyDerivedProduct.xlsx
+++ b/StructureDefinition-profile-BiologicallyDerivedProduct.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="325">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6258642-06:00</t>
+    <t>2026-02-09T22:05:42.9905529-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -420,33 +420,156 @@
     <t>BiologicallyDerivedProduct.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>BiologicallyDerivedProduct.extension:biologicalSourceEvent</t>
+  </si>
+  <si>
+    <t>biologicalSourceEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.biologicalSourceEvent|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BiologicallyDerivedProduct.biologicalSourceEvent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An identifier that supports traceability to the event during which material in this product from one or more biological entities was obtained or pooled.</t>
+  </si>
+  <si>
+    <t>Element `BiologicallyDerivedProduct.biologicalSourceEvent` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>BiologicallyDerivedProduct.extension:division</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.division|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BiologicallyDerivedProduct.division from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A unique identifier for an aliquot of a product.  Used to distinguish individual aliquots of a product carrying the same biologicalSource and productCode identifiers.</t>
+  </si>
+  <si>
+    <t>Element `BiologicallyDerivedProduct.division` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+  </si>
+  <si>
+    <t>BiologicallyDerivedProduct.extension:expirationDate</t>
+  </si>
+  <si>
+    <t>expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.expirationDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BiologicallyDerivedProduct.expirationDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Date, and where relevant time, of expiration.</t>
+  </si>
+  <si>
+    <t>Element `BiologicallyDerivedProduct.expirationDate` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+  </si>
+  <si>
+    <t>BiologicallyDerivedProduct.extension:storageTempRequirements</t>
+  </si>
+  <si>
+    <t>storageTempRequirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.storageTempRequirements|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BiologicallyDerivedProduct.storageTempRequirements from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The temperature requirements for storage of the biologically-derived product.</t>
+  </si>
+  <si>
+    <t>Element `BiologicallyDerivedProduct.storageTempRequirements` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+  </si>
+  <si>
+    <t>BiologicallyDerivedProduct.extension:property</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.property|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BiologicallyDerivedProduct.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A property that is specific to this BiologicallyDerviedProduct instance.</t>
+  </si>
+  <si>
+    <t>Element `BiologicallyDerivedProduct.property` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+  </si>
+  <si>
+    <t>BiologicallyDerivedProduct.extension:processingFacility</t>
+  </si>
+  <si>
+    <t>processingFacility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BiologicallyDerivedProduct.processingFacility from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `BiologicallyDerivedProduct.processingFacility` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `BiologicallyDerivedProduct.processingFacility` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+  </si>
+  <si>
+    <t>BiologicallyDerivedProduct.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>BiologicallyDerivedProduct.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -454,6 +577,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -519,20 +645,13 @@
     <t>BiologicallyDerivedProduct.productCategory.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>BiologicallyDerivedProduct.productCategory.extension:productCategory</t>
+  </si>
+  <si>
+    <t>productCategory</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.productCategory|0.0.1-snapshot-3}
@@ -542,8 +661,7 @@
     <t>Cross-version extension for BiologicallyDerivedProduct.productCategory from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `BiologicallyDerivedProduct.productCategory` is mapped to FHIR R4 element `BiologicallyDerivedProduct.productCategory`.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.productCategory.value</t>
@@ -595,6 +713,12 @@
     <t>BiologicallyDerivedProduct.status.extension</t>
   </si>
   <si>
+    <t>BiologicallyDerivedProduct.status.extension:productStatus</t>
+  </si>
+  <si>
+    <t>productStatus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.productStatus|0.0.1-snapshot-3}
 </t>
   </si>
@@ -602,6 +726,9 @@
     <t>Cross-version extension for BiologicallyDerivedProduct.productStatus from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `BiologicallyDerivedProduct.productStatus` is mapped to FHIR R4 element `BiologicallyDerivedProduct.status`.</t>
+  </si>
+  <si>
     <t>BiologicallyDerivedProduct.status.value</t>
   </si>
   <si>
@@ -673,6 +800,9 @@
   </si>
   <si>
     <t>BiologicallyDerivedProduct.collection.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1206,7 +1336,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM54"/>
+  <dimension ref="A1:AM60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1215,9 +1345,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.80859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.8984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="48.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1225,7 +1355,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2158,7 +2288,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2177,17 +2307,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2224,16 +2352,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2251,7 +2377,7 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2265,43 +2391,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2349,7 +2475,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2358,13 +2484,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2375,12 +2501,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2389,7 +2517,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2398,18 +2526,20 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2458,7 +2588,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2467,29 +2597,31 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2510,15 +2642,17 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2543,13 +2677,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2567,19 +2701,19 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2593,12 +2727,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
       </c>
@@ -2619,15 +2755,17 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2676,19 +2814,19 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -2702,18 +2840,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -2728,15 +2868,17 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2773,17 +2915,19 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2792,7 +2936,7 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>137</v>
@@ -2809,12 +2953,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
       </c>
@@ -2823,7 +2969,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -2835,15 +2981,17 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2892,7 +3040,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2901,7 +3049,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>137</v>
@@ -2918,42 +3066,46 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3001,22 +3153,22 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3027,10 +3179,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3041,7 +3193,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3050,16 +3202,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3086,10 +3238,10 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3110,13 +3262,13 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
@@ -3125,21 +3277,21 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3165,10 +3317,10 @@
         <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3195,13 +3347,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3219,7 +3371,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3245,10 +3397,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3271,13 +3423,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3328,7 +3480,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3354,10 +3506,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3365,7 +3517,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -3380,13 +3532,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3425,17 +3577,17 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3461,12 +3613,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3487,15 +3641,17 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3544,7 +3700,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3553,7 +3709,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>137</v>
@@ -3570,10 +3726,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3596,13 +3752,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3653,7 +3809,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3679,10 +3835,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3693,7 +3849,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3705,13 +3861,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3738,10 +3894,10 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>76</v>
@@ -3762,13 +3918,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -3788,10 +3944,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3814,13 +3970,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3847,13 +4003,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -3871,7 +4027,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3897,10 +4053,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3911,7 +4067,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -3923,17 +4079,15 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -3982,19 +4136,19 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4008,10 +4162,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4022,7 +4176,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4034,13 +4188,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4079,31 +4233,29 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4117,12 +4269,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4143,15 +4297,17 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4200,22 +4356,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4226,21 +4382,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4252,17 +4408,15 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4311,22 +4465,22 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4337,14 +4491,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4357,26 +4511,22 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4424,7 +4574,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4436,10 +4586,10 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4450,10 +4600,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4476,13 +4626,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4533,7 +4683,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4559,10 +4709,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4573,7 +4723,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4585,15 +4735,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4642,13 +4794,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4668,10 +4820,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4694,13 +4846,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4751,7 +4903,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4777,10 +4929,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4791,7 +4943,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -4803,13 +4955,13 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4860,22 +5012,22 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4886,21 +5038,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -4912,15 +5064,17 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -4969,22 +5123,22 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -4995,14 +5149,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5015,24 +5169,26 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5080,7 +5236,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5095,7 +5251,7 @@
         <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5106,46 +5262,42 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5193,22 +5345,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5219,10 +5371,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5245,13 +5397,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5302,7 +5454,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5328,10 +5480,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5354,13 +5506,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5387,13 +5539,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5411,7 +5563,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5437,10 +5589,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5451,7 +5603,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5463,13 +5615,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5520,13 +5672,13 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
@@ -5546,10 +5698,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5572,13 +5724,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5629,7 +5781,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5641,10 +5793,10 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5655,21 +5807,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -5681,7 +5833,7 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>251</v>
@@ -5689,7 +5841,9 @@
       <c r="M41" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -5738,22 +5892,22 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -5764,42 +5918,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -5847,22 +6005,22 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -5873,21 +6031,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -5899,17 +6057,15 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -5958,22 +6114,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -5984,46 +6140,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6047,13 +6199,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6071,22 +6223,22 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6097,10 +6249,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6123,13 +6275,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6180,7 +6332,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6206,10 +6358,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6232,13 +6384,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6289,7 +6441,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6315,10 +6467,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6329,7 +6481,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6341,13 +6493,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6398,13 +6550,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -6424,10 +6576,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6450,13 +6602,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6507,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6522,7 +6674,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6533,14 +6685,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6559,16 +6711,16 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6618,7 +6770,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6633,7 +6785,7 @@
         <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6644,14 +6796,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6670,19 +6822,19 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -6731,7 +6883,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -6757,10 +6909,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6783,13 +6935,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6840,7 +6992,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -6866,10 +7018,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6892,13 +7044,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6949,7 +7101,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -6975,10 +7127,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6989,7 +7141,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7001,13 +7153,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7034,13 +7186,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7058,13 +7210,13 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
@@ -7084,10 +7236,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7110,13 +7262,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7167,7 +7319,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7179,15 +7331,675 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AK57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-BiologicallyDerivedProduct.xlsx
+++ b/StructureDefinition-profile-BiologicallyDerivedProduct.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="330">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.9905529-06:00</t>
+    <t>2026-02-17T14:42:26.7381875-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,7 +460,7 @@
     <t>An identifier that supports traceability to the event during which material in this product from one or more biological entities was obtained or pooled.</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.biologicalSourceEvent` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+    <t>Element `BiologicallyDerivedProduct.biologicalSourceEvent` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -483,7 +483,7 @@
     <t>A unique identifier for an aliquot of a product.  Used to distinguish individual aliquots of a product carrying the same biologicalSource and productCode identifiers.</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.division` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+    <t>Element `BiologicallyDerivedProduct.division` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.extension:expirationDate</t>
@@ -502,7 +502,7 @@
     <t>Date, and where relevant time, of expiration.</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.expirationDate` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+    <t>Element `BiologicallyDerivedProduct.expirationDate` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.extension:storageTempRequirements</t>
@@ -521,7 +521,7 @@
     <t>The temperature requirements for storage of the biologically-derived product.</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.storageTempRequirements` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+    <t>Element `BiologicallyDerivedProduct.storageTempRequirements` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.extension:property</t>
@@ -540,7 +540,7 @@
     <t>A property that is specific to this BiologicallyDerviedProduct instance.</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.property` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+    <t>Element `BiologicallyDerivedProduct.property` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.extension:processingFacility</t>
@@ -560,7 +560,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `BiologicallyDerivedProduct.processingFacility` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `BiologicallyDerivedProduct.processingFacility` is will have a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
+Element `BiologicallyDerivedProduct.processingFacility` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.modifierExtension</t>
@@ -661,7 +661,7 @@
     <t>Cross-version extension for BiologicallyDerivedProduct.productCategory from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.productCategory` is mapped to FHIR R4 element `BiologicallyDerivedProduct.productCategory`.</t>
+    <t>Element `BiologicallyDerivedProduct.productCategory` has is mapped to FHIR R4 element `BiologicallyDerivedProduct.productCategory`, but has no comparisons.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.productCategory.value</t>
@@ -726,7 +726,7 @@
     <t>Cross-version extension for BiologicallyDerivedProduct.productStatus from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.productStatus` is mapped to FHIR R4 element `BiologicallyDerivedProduct.status`.</t>
+    <t>Element `BiologicallyDerivedProduct.productStatus` has is mapped to FHIR R4 element `BiologicallyDerivedProduct.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.status.value</t>
@@ -802,10 +802,20 @@
     <t>BiologicallyDerivedProduct.collection.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>BiologicallyDerivedProduct.collection.extension:collection</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.collection|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BiologicallyDerivedProduct.collection from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `BiologicallyDerivedProduct.collection` has is mapped to FHIR R4 element `BiologicallyDerivedProduct.collection`, but has no comparisons.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.collection.modifierExtension</t>
@@ -877,6 +887,12 @@
   </si>
   <si>
     <t>BiologicallyDerivedProduct.processing.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.processing.modifierExtension</t>
@@ -1336,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM60"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5045,7 +5061,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5067,14 +5083,12 @@
         <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5111,16 +5125,14 @@
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>201</v>
@@ -5138,7 +5150,7 @@
         <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5149,46 +5161,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5236,7 +5248,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5245,13 +5257,13 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5262,42 +5274,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5345,22 +5361,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5371,10 +5387,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5397,13 +5413,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5454,7 +5470,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5480,10 +5496,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5506,13 +5522,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5563,7 +5579,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5589,10 +5605,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5603,7 +5619,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5615,7 +5631,7 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>271</v>
@@ -5672,13 +5688,13 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
@@ -5712,7 +5728,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5724,13 +5740,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5781,22 +5797,22 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5807,21 +5823,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -5833,17 +5849,15 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -5892,19 +5906,19 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>249</v>
@@ -5918,14 +5932,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5938,26 +5952,24 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="O42" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6005,7 +6017,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6020,7 +6032,7 @@
         <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6031,42 +6043,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6114,22 +6130,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6140,10 +6156,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6166,13 +6182,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6199,13 +6215,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6223,7 +6239,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6275,13 +6291,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6308,13 +6324,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6358,10 +6374,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6384,13 +6400,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6441,7 +6457,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6467,10 +6483,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6493,13 +6509,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6550,7 +6566,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6576,10 +6592,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6602,13 +6618,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6659,7 +6675,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6671,10 +6687,10 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6685,21 +6701,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6711,17 +6727,15 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6770,19 +6784,19 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>249</v>
@@ -6796,14 +6810,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6816,26 +6830,24 @@
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="O50" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -6883,7 +6895,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -6898,7 +6910,7 @@
         <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -6909,42 +6921,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -6992,22 +7008,22 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7018,10 +7034,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7044,13 +7060,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7101,7 +7117,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7127,10 +7143,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7141,7 +7157,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7153,13 +7169,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7210,13 +7226,13 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
@@ -7236,10 +7252,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7250,7 +7266,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7262,13 +7278,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7319,22 +7335,22 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7345,21 +7361,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7371,17 +7387,15 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7430,19 +7444,19 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>249</v>
@@ -7456,14 +7470,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7476,26 +7490,24 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
       </c>
@@ -7543,7 +7555,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7558,7 +7570,7 @@
         <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7569,42 +7581,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -7652,22 +7668,22 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7678,10 +7694,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7704,13 +7720,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7761,7 +7777,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -7787,10 +7803,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7813,13 +7829,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7846,13 +7862,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -7870,7 +7886,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -7922,13 +7938,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7955,13 +7971,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8000,6 +8016,115 @@
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-BiologicallyDerivedProduct.xlsx
+++ b/StructureDefinition-profile-BiologicallyDerivedProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7381875-06:00</t>
+    <t>2026-02-20T11:59:20.7353619-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -450,7 +450,7 @@
     <t>biologicalSourceEvent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.biologicalSourceEvent|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.biologicalSourceEvent}
 </t>
   </si>
   <si>
@@ -473,7 +473,7 @@
     <t>division</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.division|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.division}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>expirationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.expirationDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.expirationDate}
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>storageTempRequirements</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.storageTempRequirements|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.storageTempRequirements}
 </t>
   </si>
   <si>
@@ -530,7 +530,7 @@
     <t>property</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.property|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.property}
 </t>
   </si>
   <si>
@@ -549,7 +549,7 @@
     <t>processingFacility</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -654,7 +654,7 @@
     <t>productCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.productCategory|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.productCategory}
 </t>
   </si>
   <si>
@@ -719,7 +719,7 @@
     <t>productStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.productStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.productStatus}
 </t>
   </si>
   <si>
@@ -808,7 +808,7 @@
     <t>collection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.collection|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.collection}
 </t>
   </si>
   <si>
@@ -1371,7 +1371,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-BiologicallyDerivedProduct.xlsx
+++ b/StructureDefinition-profile-BiologicallyDerivedProduct.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="319">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7353619-06:00</t>
+    <t>2026-02-21T13:36:54.1346154-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct</t>
+    <t>http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -450,7 +450,7 @@
     <t>biologicalSourceEvent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.biologicalSourceEvent}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.biologicalSourceEvent|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -473,7 +473,7 @@
     <t>division</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.division}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.division|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>expirationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.expirationDate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.expirationDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>storageTempRequirements</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.storageTempRequirements}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.storageTempRequirements|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -530,7 +530,7 @@
     <t>property</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.property}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.property|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -541,26 +541,6 @@
   </si>
   <si>
     <t>Element `BiologicallyDerivedProduct.property` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
-  </si>
-  <si>
-    <t>BiologicallyDerivedProduct.extension:processingFacility</t>
-  </si>
-  <si>
-    <t>processingFacility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for BiologicallyDerivedProduct.processingFacility from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `BiologicallyDerivedProduct.processingFacility` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `BiologicallyDerivedProduct.processingFacility` has a context of BiologicallyDerivedProduct based on following the parent source element upwards and mapping to `BiologicallyDerivedProduct`.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.modifierExtension</t>
@@ -654,14 +634,14 @@
     <t>productCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.productCategory}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.productCategory|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for BiologicallyDerivedProduct.productCategory from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.productCategory` has is mapped to FHIR R4 element `BiologicallyDerivedProduct.productCategory`, but has no comparisons.</t>
+    <t>Element `BiologicallyDerivedProduct.productCategory` is mapped to FHIR R4 element `BiologicallyDerivedProduct.productCategory` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.productCategory.value</t>
@@ -719,14 +699,14 @@
     <t>productStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.productStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.productStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for BiologicallyDerivedProduct.productStatus from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `BiologicallyDerivedProduct.productStatus` has is mapped to FHIR R4 element `BiologicallyDerivedProduct.status`, but has no comparisons.</t>
+    <t>Element `BiologicallyDerivedProduct.productStatus` is mapped to FHIR R4 element `BiologicallyDerivedProduct.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.status.value</t>
@@ -802,20 +782,10 @@
     <t>BiologicallyDerivedProduct.collection.extension</t>
   </si>
   <si>
-    <t>BiologicallyDerivedProduct.collection.extension:collection</t>
-  </si>
-  <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProduct.collection}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for BiologicallyDerivedProduct.collection from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `BiologicallyDerivedProduct.collection` has is mapped to FHIR R4 element `BiologicallyDerivedProduct.collection`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.collection.modifierExtension</t>
@@ -887,12 +857,6 @@
   </si>
   <si>
     <t>BiologicallyDerivedProduct.processing.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>BiologicallyDerivedProduct.processing.modifierExtension</t>
@@ -1352,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1371,7 +1335,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2972,13 +2936,11 @@
         <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2991,24 +2953,26 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3056,7 +3020,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3071,7 +3035,7 @@
         <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3082,14 +3046,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3102,26 +3066,22 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="O16" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3169,7 +3129,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3181,24 +3141,24 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3209,7 +3169,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3218,10 +3178,10 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>184</v>
@@ -3254,13 +3214,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3278,13 +3238,13 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
@@ -3293,13 +3253,13 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -3330,13 +3290,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3363,31 +3323,31 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3399,7 +3359,7 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3413,10 +3373,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3427,7 +3387,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3439,13 +3399,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3484,31 +3444,29 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
@@ -3522,12 +3480,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3536,7 +3496,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3548,15 +3508,17 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3593,17 +3555,19 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3612,7 +3576,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>137</v>
@@ -3629,14 +3593,12 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3657,17 +3619,15 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3716,19 +3676,19 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3742,10 +3702,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3768,13 +3728,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3801,10 +3761,10 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>76</v>
@@ -3825,7 +3785,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3837,7 +3797,7 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -3877,13 +3837,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3910,13 +3870,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -3960,10 +3920,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3986,13 +3946,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4019,13 +3979,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4043,7 +4003,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4055,7 +4015,7 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
@@ -4069,10 +4029,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4083,7 +4043,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4095,13 +4055,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4140,31 +4100,29 @@
         <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4178,12 +4136,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4192,7 +4152,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4204,15 +4164,17 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4249,17 +4211,19 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4268,7 +4232,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>137</v>
@@ -4285,14 +4249,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4313,17 +4275,15 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4372,19 +4332,19 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
@@ -4398,10 +4358,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4412,7 +4372,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4424,13 +4384,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4481,19 +4441,19 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -4507,10 +4467,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4521,7 +4481,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4533,13 +4493,13 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4590,13 +4550,13 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -4616,10 +4576,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4630,7 +4590,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4642,15 +4602,17 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4699,13 +4661,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -4725,10 +4687,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4739,7 +4701,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4751,17 +4713,15 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4810,13 +4770,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4836,10 +4796,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4862,13 +4822,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4919,7 +4879,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4931,10 +4891,10 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4945,21 +4905,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -4971,15 +4931,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5028,22 +4990,22 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5054,14 +5016,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5074,22 +5036,26 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5125,17 +5091,19 @@
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5150,7 +5118,7 @@
         <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5161,14 +5129,12 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C35" t="s" s="2">
         <v>252</v>
       </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5195,11 +5161,9 @@
         <v>254</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>255</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5248,19 +5212,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5281,26 +5245,26 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>258</v>
@@ -5308,12 +5272,8 @@
       <c r="M36" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5361,22 +5321,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5387,10 +5347,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5413,13 +5373,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5470,7 +5430,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5496,10 +5456,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5510,7 +5470,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5522,13 +5482,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5579,13 +5539,13 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
@@ -5605,10 +5565,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5631,13 +5591,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5688,7 +5648,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5700,10 +5660,10 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5714,14 +5674,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5740,15 +5700,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5797,7 +5759,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5809,10 +5771,10 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5823,42 +5785,46 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -5906,22 +5872,22 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -5932,21 +5898,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -5958,17 +5924,15 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6017,22 +5981,22 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6043,46 +6007,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6106,13 +6066,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6130,22 +6090,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6156,10 +6116,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6182,13 +6142,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6239,7 +6199,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6265,10 +6225,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6291,13 +6251,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6324,13 +6284,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6348,7 +6308,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6374,10 +6334,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6400,13 +6360,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6457,7 +6417,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6483,10 +6443,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6509,13 +6469,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6566,7 +6526,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6578,10 +6538,10 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6592,21 +6552,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6618,15 +6578,17 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6675,22 +6637,22 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6701,42 +6663,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -6784,22 +6750,22 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6810,21 +6776,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -6836,17 +6802,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -6895,22 +6859,22 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -6921,46 +6885,42 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7008,22 +6968,22 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7034,10 +6994,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7048,7 +7008,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7060,13 +7020,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7117,13 +7077,13 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
@@ -7143,10 +7103,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7169,13 +7129,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7226,7 +7186,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7238,10 +7198,10 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7252,14 +7212,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7278,15 +7238,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7335,7 +7297,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>308</v>
+        <v>195</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7347,10 +7309,10 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7361,42 +7323,46 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7444,22 +7410,22 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7470,21 +7436,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7496,17 +7462,15 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7555,22 +7519,22 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>201</v>
+        <v>303</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7581,46 +7545,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -7668,22 +7628,22 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7694,10 +7654,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7720,13 +7680,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7753,13 +7713,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -7777,7 +7737,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -7803,10 +7763,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7829,13 +7789,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7886,7 +7846,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -7907,224 +7867,6 @@
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
     </row>
